--- a/pop-in din rail schematic.xlsx
+++ b/pop-in din rail schematic.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Documents\GitHub\Radiabeam\Schematics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Documents\GitHub\Radiabeam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53CD0EE-B561-4618-9104-70A73BF5ABCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37434A7-BF96-4D63-9E1C-2E383805DBEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3072" yWindow="3072" windowWidth="17280" windowHeight="9960" xr2:uid="{01567CAC-52C2-40DA-944B-7355CFB80DCA}"/>
+    <workbookView xWindow="1776" yWindow="372" windowWidth="17280" windowHeight="9960" xr2:uid="{01567CAC-52C2-40DA-944B-7355CFB80DCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Existing Din" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="222">
   <si>
     <t>Solenoid Inputs</t>
   </si>
@@ -266,9 +266,6 @@
     <t>Pin 1</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>ESH in 2</t>
   </si>
   <si>
@@ -278,42 +275,21 @@
     <t>ESH ret</t>
   </si>
   <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P4 in </t>
-  </si>
-  <si>
     <t>P5 ret</t>
   </si>
   <si>
-    <t>P4 ret</t>
-  </si>
-  <si>
     <t>P5in</t>
   </si>
   <si>
-    <t>ESV ret</t>
-  </si>
-  <si>
     <t>P6 ax2 pos2</t>
   </si>
   <si>
     <t>P6 ax2 pos1</t>
   </si>
   <si>
-    <t>P4 sol</t>
-  </si>
-  <si>
     <t>P5sol</t>
   </si>
   <si>
-    <t>PSV sol</t>
-  </si>
-  <si>
     <t>P6 pos2 out</t>
   </si>
   <si>
@@ -329,12 +305,6 @@
     <t>Descript</t>
   </si>
   <si>
-    <t>P6 inserted?</t>
-  </si>
-  <si>
-    <t>P6 retracted?</t>
-  </si>
-  <si>
     <t>Ground</t>
   </si>
   <si>
@@ -350,9 +320,6 @@
     <t>24 Volts</t>
   </si>
   <si>
-    <t>Blue Jumper</t>
-  </si>
-  <si>
     <t>Pin 3</t>
   </si>
   <si>
@@ -365,111 +332,9 @@
     <t>P4 pos1</t>
   </si>
   <si>
-    <t xml:space="preserve">V1 in </t>
-  </si>
-  <si>
-    <t>V1 out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H1 in </t>
-  </si>
-  <si>
-    <t>H1 out</t>
-  </si>
-  <si>
-    <t>V2 in</t>
-  </si>
-  <si>
-    <t>V2 out</t>
-  </si>
-  <si>
-    <t>V1 sol</t>
-  </si>
-  <si>
-    <t>V1</t>
-  </si>
-  <si>
-    <t>V2</t>
-  </si>
-  <si>
-    <t>V2 sol</t>
-  </si>
-  <si>
     <t>Pin 4</t>
   </si>
   <si>
-    <t>H1 in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V2 in </t>
-  </si>
-  <si>
-    <t>H1 sol</t>
-  </si>
-  <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>H2 sol</t>
-  </si>
-  <si>
-    <t>0 or 24 from GUI</t>
-  </si>
-  <si>
-    <t>P4 (fully inserted)</t>
-  </si>
-  <si>
-    <t>P4 (mid inserted)</t>
-  </si>
-  <si>
-    <t>P4 (retracted)</t>
-  </si>
-  <si>
-    <t>P3V inserted</t>
-  </si>
-  <si>
-    <t>P3V retracted</t>
-  </si>
-  <si>
-    <t>P5V inserted</t>
-  </si>
-  <si>
-    <t>P5V retracted</t>
-  </si>
-  <si>
-    <t>Solenoid to fully insert</t>
-  </si>
-  <si>
-    <t>Solenoid to half insert</t>
-  </si>
-  <si>
-    <t>Labels</t>
-  </si>
-  <si>
-    <t>Color</t>
-  </si>
-  <si>
-    <t>Indicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESV in </t>
-  </si>
-  <si>
-    <t>Yellow</t>
-  </si>
-  <si>
-    <t>P5 inserted?</t>
-  </si>
-  <si>
-    <t>P3 PLCs</t>
-  </si>
-  <si>
-    <t>INPUTS</t>
-  </si>
-  <si>
     <t>POPIN01 RETRACTED POS 1 IN</t>
   </si>
   <si>
@@ -612,6 +477,222 @@
   </si>
   <si>
     <t>OUTPUT</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>P4_ret</t>
+  </si>
+  <si>
+    <t>P6pos2</t>
+  </si>
+  <si>
+    <t>P6 pos1</t>
+  </si>
+  <si>
+    <t>P4in</t>
+  </si>
+  <si>
+    <t>P4sol</t>
+  </si>
+  <si>
+    <t>P6pos1</t>
+  </si>
+  <si>
+    <t>H3in</t>
+  </si>
+  <si>
+    <t>H3out</t>
+  </si>
+  <si>
+    <t>V3in</t>
+  </si>
+  <si>
+    <t>V3out</t>
+  </si>
+  <si>
+    <t>V3sol</t>
+  </si>
+  <si>
+    <t>H3sol</t>
+  </si>
+  <si>
+    <t>PLC TERM</t>
+  </si>
+  <si>
+    <t>PLC Channel</t>
+  </si>
+  <si>
+    <t>PLC Block</t>
+  </si>
+  <si>
+    <t>PLC Row</t>
+  </si>
+  <si>
+    <t>PLC Label</t>
+  </si>
+  <si>
+    <t>Bunker Label</t>
+  </si>
+  <si>
+    <t>P1_Pos1</t>
+  </si>
+  <si>
+    <t>P1_ret</t>
+  </si>
+  <si>
+    <t>P1_in1</t>
+  </si>
+  <si>
+    <t>P1_Pos2</t>
+  </si>
+  <si>
+    <t>P1_Pos3</t>
+  </si>
+  <si>
+    <t>P1_in2</t>
+  </si>
+  <si>
+    <t>P2_Pos1</t>
+  </si>
+  <si>
+    <t>P3_ret</t>
+  </si>
+  <si>
+    <t>P2_Pos2</t>
+  </si>
+  <si>
+    <t>P3_in1</t>
+  </si>
+  <si>
+    <t>P3_Ax1_pos1</t>
+  </si>
+  <si>
+    <t>P3_Ax1_pos2</t>
+  </si>
+  <si>
+    <t>p4_sol</t>
+  </si>
+  <si>
+    <t>P3_ax2_pos1</t>
+  </si>
+  <si>
+    <t>P5_ret</t>
+  </si>
+  <si>
+    <t>P3_ax2_pos2</t>
+  </si>
+  <si>
+    <t>P5_in</t>
+  </si>
+  <si>
+    <t>P4_pos1</t>
+  </si>
+  <si>
+    <t>ES-H-ret</t>
+  </si>
+  <si>
+    <t>ES_H_in1</t>
+  </si>
+  <si>
+    <t>P4_pos2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P4_pos3</t>
+  </si>
+  <si>
+    <t>ES_H_in2</t>
+  </si>
+  <si>
+    <t>ES_V_ret</t>
+  </si>
+  <si>
+    <t>P5_ax1_pos1</t>
+  </si>
+  <si>
+    <t>P5_ax1_pos2</t>
+  </si>
+  <si>
+    <t>ES_V_sol</t>
+  </si>
+  <si>
+    <t>p5_ax2_pos1</t>
+  </si>
+  <si>
+    <t>P6_pos1</t>
+  </si>
+  <si>
+    <t>p6_pos2</t>
+  </si>
+  <si>
+    <t>p4_in</t>
+  </si>
+  <si>
+    <t>ES_V_in</t>
+  </si>
+  <si>
+    <t>p5_sol</t>
+  </si>
+  <si>
+    <t>p4_pos3_out</t>
+  </si>
+  <si>
+    <t>p4_pos2_out</t>
+  </si>
+  <si>
+    <t>ES_H_sol1</t>
+  </si>
+  <si>
+    <t>ES_H_sol2</t>
+  </si>
+  <si>
+    <t>p5_ax2_pos2</t>
+  </si>
+  <si>
+    <t>P3_sol2</t>
+  </si>
+  <si>
+    <t>p6_pos2_out</t>
+  </si>
+  <si>
+    <t>DIRECT??</t>
+  </si>
+  <si>
+    <t>wire gone??</t>
+  </si>
+  <si>
+    <t>H5out</t>
+  </si>
+  <si>
+    <t>H5in</t>
+  </si>
+  <si>
+    <t>V5in</t>
+  </si>
+  <si>
+    <t>V5out</t>
+  </si>
+  <si>
+    <t>V5sol</t>
+  </si>
+  <si>
+    <t>H5sol</t>
+  </si>
+  <si>
+    <t>????</t>
+  </si>
+  <si>
+    <t>PLC Name</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>P4ret</t>
+  </si>
+  <si>
+    <t>Switch</t>
   </si>
 </sst>
 </file>
@@ -655,7 +736,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -698,6 +779,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -726,7 +813,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -742,6 +829,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1061,10 +1149,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78523010-1BB8-4CB5-86D6-FF0C0C8CE913}">
-  <dimension ref="A1:AD25"/>
+  <dimension ref="A1:AD40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1073,9 +1161,9 @@
     <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
@@ -1166,86 +1254,82 @@
         <v>78</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="10" t="s">
+      <c r="J2" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="O2" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="P2" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="S2" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="J2" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="S2" s="10" t="s">
-        <v>92</v>
-      </c>
       <c r="T2" s="10" t="s">
-        <v>93</v>
+        <v>155</v>
       </c>
       <c r="U2" s="10" t="s">
-        <v>94</v>
+        <v>150</v>
       </c>
       <c r="V2" s="10" t="s">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="X2" s="10"/>
       <c r="Y2" s="10" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="Z2" s="10" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="AA2" s="10"/>
       <c r="AC2" s="11" t="s">
         <v>32</v>
       </c>
       <c r="AD2" s="12" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="AC3" s="13" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
@@ -1255,13 +1339,13 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -1276,19 +1360,15 @@
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
       <c r="P5" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q5" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="S5" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="X5" s="13" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="Q5" s="11"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="X5" t="s">
+        <v>87</v>
       </c>
       <c r="Y5" s="13" t="s">
         <v>37</v>
@@ -1298,192 +1378,189 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="11" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="S8" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="T8" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="U8" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="V8" s="11" t="s">
-        <v>121</v>
+        <v>158</v>
+      </c>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q8" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="S8" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="T8" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="U8" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="V8" s="15" t="s">
+        <v>216</v>
       </c>
       <c r="X8" s="13"/>
       <c r="Y8" s="13" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="Z8" s="13" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="AA8" s="13"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D11" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="E11" t="s">
-        <v>111</v>
+        <v>100</v>
+      </c>
+      <c r="F11" t="s">
+        <v>152</v>
+      </c>
+      <c r="G11" t="s">
+        <v>156</v>
       </c>
       <c r="H11" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="I11" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="J11" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="K11" t="s">
-        <v>115</v>
-      </c>
-      <c r="L11" t="s">
-        <v>124</v>
-      </c>
-      <c r="M11" t="s">
-        <v>117</v>
+        <v>158</v>
+      </c>
+      <c r="N11" t="s">
+        <v>213</v>
+      </c>
+      <c r="O11" t="s">
+        <v>214</v>
+      </c>
+      <c r="P11" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>211</v>
       </c>
       <c r="S11" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="T11" t="s">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="U11" t="s">
-        <v>127</v>
+        <v>215</v>
       </c>
       <c r="V11" t="s">
-        <v>128</v>
+        <v>216</v>
       </c>
       <c r="Y11" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="Z11" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
-        <v>130</v>
+        <v>221</v>
       </c>
       <c r="D12" t="s">
-        <v>131</v>
+        <v>221</v>
       </c>
       <c r="E12" t="s">
-        <v>132</v>
-      </c>
-      <c r="H12" t="s">
-        <v>133</v>
-      </c>
-      <c r="I12" t="s">
-        <v>134</v>
-      </c>
-      <c r="L12" t="s">
-        <v>135</v>
-      </c>
-      <c r="M12" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>139</v>
-      </c>
-      <c r="C19" t="s">
-        <v>140</v>
-      </c>
-      <c r="D19" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>142</v>
-      </c>
-      <c r="C20" t="s">
-        <v>143</v>
-      </c>
-      <c r="D20" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>33</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="F12" t="s">
+        <v>221</v>
+      </c>
+      <c r="G12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="26" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F31" s="14"/>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F33" s="14"/>
+    </row>
+    <row r="40" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F40" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1495,7 +1572,7 @@
   <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2195,477 +2272,782 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C88637E-CC72-4A93-9D9B-EE7A1A413BE6}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" customWidth="1"/>
     <col min="7" max="7" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B1" s="14" t="s">
-        <v>146</v>
-      </c>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B1" s="14"/>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>164</v>
+      </c>
       <c r="E2" s="14"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J3" t="s">
+        <v>170</v>
+      </c>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>173</v>
+      </c>
+      <c r="J5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>175</v>
+      </c>
+      <c r="J6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>177</v>
+      </c>
+      <c r="J7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8" t="s">
+        <v>179</v>
+      </c>
+      <c r="J8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9" t="s">
+        <v>180</v>
+      </c>
+      <c r="J9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>182</v>
+      </c>
+      <c r="J10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>184</v>
+      </c>
+      <c r="J11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>186</v>
+      </c>
+      <c r="J12" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14">
+        <v>4</v>
+      </c>
+      <c r="G13" s="14">
+        <v>4</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="I13" s="14"/>
+      <c r="J13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14">
+        <v>4</v>
+      </c>
+      <c r="G14" s="14">
+        <v>5</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="I14" s="14"/>
+      <c r="J14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14">
+        <v>4</v>
+      </c>
+      <c r="G15" s="14">
+        <v>6</v>
+      </c>
+      <c r="H15" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="I15" s="14"/>
+      <c r="J15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>7</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="I16" s="14"/>
+      <c r="J16" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>148</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14">
+        <v>6</v>
+      </c>
+      <c r="G17" s="14">
+        <v>1</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="I17" s="14"/>
+      <c r="J17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14">
+        <v>6</v>
+      </c>
+      <c r="G18" s="14">
+        <v>2</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="I18" s="14"/>
+      <c r="J18" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>148</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14">
+        <v>6</v>
+      </c>
+      <c r="G19" s="14">
+        <v>3</v>
+      </c>
+      <c r="H19" t="s">
+        <v>197</v>
+      </c>
+      <c r="J19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>148</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="E3" s="14"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="E4" s="14"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>193</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="E5" s="14"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>193</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="E6" s="14"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>193</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="E7" s="14"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>193</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="E8" s="14"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>193</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="E9" s="14"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>193</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="E10" s="14"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>193</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="E11" s="14"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="E12" s="14"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>193</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>193</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>193</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>193</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>193</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>193</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>193</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>193</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>192</v>
-      </c>
       <c r="C20" s="14" t="s">
-        <v>188</v>
+        <v>143</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F20" s="14">
+        <v>6</v>
+      </c>
+      <c r="G20" s="14">
+        <v>4</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="I20" s="14"/>
+      <c r="J20" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>149</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>149</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="F27">
+        <v>8</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27" t="s">
+        <v>180</v>
+      </c>
+      <c r="J27" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28">
+        <v>8</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+      <c r="H28" t="s">
+        <v>184</v>
+      </c>
+      <c r="J28" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>149</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F29">
+        <v>8</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
+      <c r="H29" t="s">
+        <v>203</v>
+      </c>
+      <c r="J29" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>149</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F30">
+        <v>8</v>
+      </c>
+      <c r="G30">
+        <v>6</v>
+      </c>
+      <c r="H30" t="s">
+        <v>202</v>
+      </c>
+      <c r="J30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>149</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="F31" s="14">
+        <v>8</v>
+      </c>
+      <c r="G31" s="14">
+        <v>7</v>
+      </c>
+      <c r="H31" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>194</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>194</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>194</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>194</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>194</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>194</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>194</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I31" s="14"/>
+      <c r="J31" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="D32" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="F32">
+        <v>8</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32" t="s">
+        <v>206</v>
+      </c>
+      <c r="J32" t="s">
+        <v>207</v>
+      </c>
+      <c r="K32" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>194</v>
-      </c>
       <c r="B33" s="14" t="s">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>154</v>
+        <v>109</v>
+      </c>
+      <c r="H33" t="s">
+        <v>208</v>
+      </c>
+      <c r="K33" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
